--- a/biology/Zoologie/Bombus_consobrinus/Bombus_consobrinus.xlsx
+++ b/biology/Zoologie/Bombus_consobrinus/Bombus_consobrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourdon cousin
 Bombus consobrinus, le Bourdon cousin, est une espèce de bourdons du sous-genre Megabombus.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce paléarctique boréale se rencontre en Scandinavie et en Russie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce paléarctique boréale se rencontre en Scandinavie et en Russie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bourdon est grand, avec le thorax et la partie antérieure de l'abdomen de couleur orange, suivie d'une bande noire ; l'extrémité de l'abdomen est grise[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bourdon est grand, avec le thorax et la partie antérieure de l'abdomen de couleur orange, suivie d'une bande noire ; l'extrémité de l'abdomen est grise,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bourdon butine principalement les fleurs d'aconits, notamment celle d'Aconitum spetentrionale, bien qu'il soit peu strict[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bourdon butine principalement les fleurs d'aconits, notamment celle d'Aconitum spetentrionale, bien qu'il soit peu strict. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par sa morphologie et son écologie, le Bourdon cousin est très proche du Bourdon des aconits. Cette dernière est inféodées aux hautes montagnes européennes et à l'Aconit tue-loup[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par sa morphologie et son écologie, le Bourdon cousin est très proche du Bourdon des aconits. Cette dernière est inféodées aux hautes montagnes européennes et à l'Aconit tue-loup.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bombus consobrinus a pour synonymes[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bombus consobrinus a pour synonymes :
 Bombus przewalskiellus (Skorikov, 1933)
 Bombus solowiyofkae Matsumura, 1911
 Bombus yezoensis Matsumura, 1932
